--- a/Relatórios/Gerar Transferências/Src/Transferências/teste.xlsx
+++ b/Relatórios/Gerar Transferências/Src/Transferências/teste.xlsx
@@ -1496,7 +1496,7 @@
         <v>75</v>
       </c>
       <c r="AC10" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="11">
@@ -1595,7 +1595,7 @@
         <v>60</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12">
@@ -1694,7 +1694,7 @@
         <v>45</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="13">
@@ -4245,7 +4245,7 @@
         <v>15</v>
       </c>
       <c r="AC37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="38">
@@ -4554,7 +4554,7 @@
         <v>8.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="41">
@@ -5172,7 +5172,7 @@
         <v>3</v>
       </c>
       <c r="AC46" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47">
@@ -8254,7 +8254,7 @@
         <v>29.5</v>
       </c>
       <c r="AC76" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="77">
@@ -11031,7 +11031,7 @@
         <v>50</v>
       </c>
       <c r="AC103" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="104">
@@ -29341,7 +29341,7 @@
         <v>7</v>
       </c>
       <c r="AC281" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="282">
@@ -44636,7 +44636,7 @@
         <v>54</v>
       </c>
       <c r="AC430" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="431">
@@ -49370,7 +49370,7 @@
         <v>9</v>
       </c>
       <c r="AC476" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="477">
@@ -51727,7 +51727,7 @@
         <v>81</v>
       </c>
       <c r="AC499" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="500">
@@ -51933,7 +51933,7 @@
         <v>30</v>
       </c>
       <c r="AC501" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="502">
@@ -52139,7 +52139,7 @@
         <v>27</v>
       </c>
       <c r="AC503" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="504">
@@ -53046,7 +53046,7 @@
         <v>75</v>
       </c>
       <c r="AC512" t="n">
-        <v>37</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="513">
@@ -53767,7 +53767,7 @@
         <v>216</v>
       </c>
       <c r="AC519" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="520">
@@ -55407,7 +55407,7 @@
         <v>25</v>
       </c>
       <c r="AC535" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="536">
@@ -59590,7 +59590,7 @@
         <v>135</v>
       </c>
       <c r="AC576" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="577">
